--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/C1qb-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/C1qb-Lrp1.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.531705</v>
+        <v>5.705410666666666</v>
       </c>
       <c r="H2">
-        <v>1.595115</v>
+        <v>17.116232</v>
       </c>
       <c r="I2">
-        <v>0.0007769750683685357</v>
+        <v>0.005197526680709303</v>
       </c>
       <c r="J2">
-        <v>0.0007779394035069672</v>
+        <v>0.005216013675215122</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N2">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O2">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P2">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q2">
-        <v>2.09846665364</v>
+        <v>16.58475207656089</v>
       </c>
       <c r="R2">
-        <v>18.88619988276</v>
+        <v>149.262768689048</v>
       </c>
       <c r="S2">
-        <v>6.279736155043279E-06</v>
+        <v>2.869307981502657E-05</v>
       </c>
       <c r="T2">
-        <v>6.470653762009278E-06</v>
+        <v>2.933768197279268E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.531705</v>
+        <v>5.705410666666666</v>
       </c>
       <c r="H3">
-        <v>1.595115</v>
+        <v>17.116232</v>
       </c>
       <c r="I3">
-        <v>0.0007769750683685357</v>
+        <v>0.005197526680709303</v>
       </c>
       <c r="J3">
-        <v>0.0007779394035069672</v>
+        <v>0.005216013675215122</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>557.408233</v>
       </c>
       <c r="O3">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P3">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q3">
-        <v>98.79224817575499</v>
+        <v>1060.08095941534</v>
       </c>
       <c r="R3">
-        <v>889.130233581795</v>
+        <v>9540.728634738056</v>
       </c>
       <c r="S3">
-        <v>0.0002956393191338875</v>
+        <v>0.001834033299893725</v>
       </c>
       <c r="T3">
-        <v>0.0003046273960117305</v>
+        <v>0.001875235632656459</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.531705</v>
+        <v>5.705410666666666</v>
       </c>
       <c r="H4">
-        <v>1.595115</v>
+        <v>17.116232</v>
       </c>
       <c r="I4">
-        <v>0.0007769750683685357</v>
+        <v>0.005197526680709303</v>
       </c>
       <c r="J4">
-        <v>0.0007779394035069672</v>
+        <v>0.005216013675215122</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N4">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O4">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P4">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q4">
-        <v>62.389958615155</v>
+        <v>782.0503887250255</v>
       </c>
       <c r="R4">
-        <v>561.5096275363951</v>
+        <v>7038.453498525231</v>
       </c>
       <c r="S4">
-        <v>0.0001867041718998201</v>
+        <v>0.001353015958241137</v>
       </c>
       <c r="T4">
-        <v>0.0001923803838981626</v>
+        <v>0.001383412033245866</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.531705</v>
+        <v>5.705410666666666</v>
       </c>
       <c r="H5">
-        <v>1.595115</v>
+        <v>17.116232</v>
       </c>
       <c r="I5">
-        <v>0.0007769750683685357</v>
+        <v>0.005197526680709303</v>
       </c>
       <c r="J5">
-        <v>0.0007779394035069672</v>
+        <v>0.005216013675215122</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N5">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O5">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P5">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q5">
-        <v>22.04373108867</v>
+        <v>166.6706584296226</v>
       </c>
       <c r="R5">
-        <v>132.26238653202</v>
+        <v>1000.023950577736</v>
       </c>
       <c r="S5">
-        <v>6.596664992005183E-05</v>
+        <v>0.0002883548987086143</v>
       </c>
       <c r="T5">
-        <v>4.531478615594698E-05</v>
+        <v>0.000196555275537898</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.531705</v>
+        <v>5.705410666666666</v>
       </c>
       <c r="H6">
-        <v>1.595115</v>
+        <v>17.116232</v>
       </c>
       <c r="I6">
-        <v>0.0007769750683685357</v>
+        <v>0.005197526680709303</v>
       </c>
       <c r="J6">
-        <v>0.0007779394035069672</v>
+        <v>0.005216013675215122</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N6">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O6">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P6">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q6">
-        <v>74.31329861639499</v>
+        <v>978.8111861739803</v>
       </c>
       <c r="R6">
-        <v>668.8196875475551</v>
+        <v>8809.300675565823</v>
       </c>
       <c r="S6">
-        <v>0.000222385191259733</v>
+        <v>0.0016934294440508</v>
       </c>
       <c r="T6">
-        <v>0.0002291461836791178</v>
+        <v>0.001731473051802106</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>1.546070666666667</v>
+        <v>1.546070666666666</v>
       </c>
       <c r="H7">
-        <v>4.638212</v>
+        <v>4.638211999999999</v>
       </c>
       <c r="I7">
-        <v>0.002259257223339862</v>
+        <v>0.001408442618725082</v>
       </c>
       <c r="J7">
-        <v>0.002262061278728403</v>
+        <v>0.001413452284389863</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N7">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O7">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P7">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q7">
-        <v>6.101837933009779</v>
+        <v>4.49418984847422</v>
       </c>
       <c r="R7">
-        <v>54.916541397088</v>
+        <v>40.44770863626799</v>
       </c>
       <c r="S7">
-        <v>1.825996720685067E-05</v>
+        <v>7.775343727230034E-06</v>
       </c>
       <c r="T7">
-        <v>1.881510983646732E-05</v>
+        <v>7.950020108303665E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>1.546070666666667</v>
+        <v>1.546070666666666</v>
       </c>
       <c r="H8">
-        <v>4.638212</v>
+        <v>4.638211999999999</v>
       </c>
       <c r="I8">
-        <v>0.002259257223339862</v>
+        <v>0.001408442618725082</v>
       </c>
       <c r="J8">
-        <v>0.002262061278728403</v>
+        <v>0.001413452284389863</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>557.408233</v>
       </c>
       <c r="O8">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P8">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q8">
-        <v>287.2641727999329</v>
+        <v>287.2641727999328</v>
       </c>
       <c r="R8">
         <v>2585.377555199396</v>
       </c>
       <c r="S8">
-        <v>0.0008596482621495171</v>
+        <v>0.000496992285449664</v>
       </c>
       <c r="T8">
-        <v>0.0008857834348685585</v>
+        <v>0.0005081574270677551</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>1.546070666666667</v>
+        <v>1.546070666666666</v>
       </c>
       <c r="H9">
-        <v>4.638212</v>
+        <v>4.638211999999999</v>
       </c>
       <c r="I9">
-        <v>0.002259257223339862</v>
+        <v>0.001408442618725082</v>
       </c>
       <c r="J9">
-        <v>0.002262061278728403</v>
+        <v>0.001413452284389863</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N9">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O9">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P9">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q9">
-        <v>181.4150420053196</v>
+        <v>211.9225479994124</v>
       </c>
       <c r="R9">
-        <v>1632.735378047876</v>
+        <v>1907.302931994711</v>
       </c>
       <c r="S9">
-        <v>0.0005428909705919689</v>
+        <v>0.0003666446478235128</v>
       </c>
       <c r="T9">
-        <v>0.0005593960342427127</v>
+        <v>0.0003748814747045595</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.546070666666667</v>
+        <v>1.546070666666666</v>
       </c>
       <c r="H10">
-        <v>4.638212</v>
+        <v>4.638211999999999</v>
       </c>
       <c r="I10">
-        <v>0.002259257223339862</v>
+        <v>0.001408442618725082</v>
       </c>
       <c r="J10">
-        <v>0.002262061278728403</v>
+        <v>0.001413452284389863</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N10">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O10">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P10">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q10">
-        <v>64.09788514322933</v>
+        <v>45.16495499571266</v>
       </c>
       <c r="R10">
-        <v>384.587310859376</v>
+        <v>270.9897299742759</v>
       </c>
       <c r="S10">
-        <v>0.0001918152028279989</v>
+        <v>7.813934465535866E-05</v>
       </c>
       <c r="T10">
-        <v>0.0001317645341721112</v>
+        <v>5.326318535897298E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>1.546070666666667</v>
+        <v>1.546070666666666</v>
       </c>
       <c r="H11">
-        <v>4.638212</v>
+        <v>4.638211999999999</v>
       </c>
       <c r="I11">
-        <v>0.002259257223339862</v>
+        <v>0.001408442618725082</v>
       </c>
       <c r="J11">
-        <v>0.002262061278728403</v>
+        <v>0.001413452284389863</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N11">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O11">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P11">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q11">
-        <v>216.0852561740982</v>
+        <v>265.241426351687</v>
       </c>
       <c r="R11">
-        <v>1944.767305566884</v>
+        <v>2387.172837165183</v>
       </c>
       <c r="S11">
-        <v>0.0006466428205635261</v>
+        <v>0.0004588909970693168</v>
       </c>
       <c r="T11">
-        <v>0.0006663021656085538</v>
+        <v>0.0004692001771502717</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>354.9902393333334</v>
+        <v>375.7120663333333</v>
       </c>
       <c r="H12">
-        <v>1064.970718</v>
+        <v>1127.136199</v>
       </c>
       <c r="I12">
-        <v>0.518743599319509</v>
+        <v>0.3422669467845359</v>
       </c>
       <c r="J12">
-        <v>0.5193874329520484</v>
+        <v>0.3434843502830526</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N12">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O12">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P12">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q12">
-        <v>1401.030984490804</v>
+        <v>1092.13724241014</v>
       </c>
       <c r="R12">
-        <v>12609.27886041723</v>
+        <v>9829.23518169126</v>
       </c>
       <c r="S12">
-        <v>0.004192635090189109</v>
+        <v>0.001889493489005797</v>
       </c>
       <c r="T12">
-        <v>0.004320100295499963</v>
+        <v>0.001931941758342862</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>354.9902393333334</v>
+        <v>375.7120663333333</v>
       </c>
       <c r="H13">
-        <v>1064.970718</v>
+        <v>1127.136199</v>
       </c>
       <c r="I13">
-        <v>0.518743599319509</v>
+        <v>0.3422669467845359</v>
       </c>
       <c r="J13">
-        <v>0.5193874329520484</v>
+        <v>0.3434843502830526</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>557.408233</v>
       </c>
       <c r="O13">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P13">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q13">
-        <v>65958.16067968015</v>
+        <v>69808.3330038807</v>
       </c>
       <c r="R13">
-        <v>593623.4461171213</v>
+        <v>628274.9970349264</v>
       </c>
       <c r="S13">
-        <v>0.1973821435865422</v>
+        <v>0.1207745561337122</v>
       </c>
       <c r="T13">
-        <v>0.2033829890967629</v>
+        <v>0.1234878075514378</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>354.9902393333334</v>
+        <v>375.7120663333333</v>
       </c>
       <c r="H14">
-        <v>1064.970718</v>
+        <v>1127.136199</v>
       </c>
       <c r="I14">
-        <v>0.518743599319509</v>
+        <v>0.3422669467845359</v>
       </c>
       <c r="J14">
-        <v>0.5193874329520484</v>
+        <v>0.3434843502830526</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N14">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O14">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P14">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q14">
-        <v>41654.35032732556</v>
+        <v>51499.49489899399</v>
       </c>
       <c r="R14">
-        <v>374889.15294593</v>
+        <v>463495.454090946</v>
       </c>
       <c r="S14">
-        <v>0.1246521260233568</v>
+        <v>0.08909865584658223</v>
       </c>
       <c r="T14">
-        <v>0.128441821165961</v>
+        <v>0.09110029478471705</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>354.9902393333334</v>
+        <v>375.7120663333333</v>
       </c>
       <c r="H15">
-        <v>1064.970718</v>
+        <v>1127.136199</v>
       </c>
       <c r="I15">
-        <v>0.518743599319509</v>
+        <v>0.3422669467845359</v>
       </c>
       <c r="J15">
-        <v>0.5193874329520484</v>
+        <v>0.3434843502830526</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N15">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O15">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P15">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q15">
-        <v>14717.38910667871</v>
+        <v>10975.57759366619</v>
       </c>
       <c r="R15">
-        <v>88304.33464007227</v>
+        <v>65853.46556199713</v>
       </c>
       <c r="S15">
-        <v>0.0440423107609246</v>
+        <v>0.01898871460105574</v>
       </c>
       <c r="T15">
-        <v>0.0302541950571058</v>
+        <v>0.01294353606349716</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>354.9902393333334</v>
+        <v>375.7120663333333</v>
       </c>
       <c r="H16">
-        <v>1064.970718</v>
+        <v>1127.136199</v>
       </c>
       <c r="I16">
-        <v>0.518743599319509</v>
+        <v>0.3422669467845359</v>
       </c>
       <c r="J16">
-        <v>0.5193874329520484</v>
+        <v>0.3434843502830526</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N16">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O16">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P16">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q16">
-        <v>49614.90988703046</v>
+        <v>64456.5649684359</v>
       </c>
       <c r="R16">
-        <v>446534.1889832742</v>
+        <v>580109.0847159231</v>
       </c>
       <c r="S16">
-        <v>0.1484743838584962</v>
+        <v>0.1115155267141799</v>
       </c>
       <c r="T16">
-        <v>0.1529883273367187</v>
+        <v>0.1140207701250577</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>0.5</v>
       </c>
       <c r="G17">
-        <v>2.544879</v>
+        <v>11.671832</v>
       </c>
       <c r="H17">
-        <v>5.089758</v>
+        <v>23.343664</v>
       </c>
       <c r="I17">
-        <v>0.003718805606519876</v>
+        <v>0.01063282939248953</v>
       </c>
       <c r="J17">
-        <v>0.002482280777570779</v>
+        <v>0.007113766082022429</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N17">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O17">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P17">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q17">
-        <v>10.043809479032</v>
+        <v>33.92822205248266</v>
       </c>
       <c r="R17">
-        <v>60.262856874192</v>
+        <v>203.569332314896</v>
       </c>
       <c r="S17">
-        <v>3.005645737111816E-05</v>
+        <v>5.869880832947015E-05</v>
       </c>
       <c r="T17">
-        <v>2.06468259344416E-05</v>
+        <v>4.001166790165788E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>0.5</v>
       </c>
       <c r="G18">
-        <v>2.544879</v>
+        <v>11.671832</v>
       </c>
       <c r="H18">
-        <v>5.089758</v>
+        <v>23.343664</v>
       </c>
       <c r="I18">
-        <v>0.003718805606519876</v>
+        <v>0.01063282939248953</v>
       </c>
       <c r="J18">
-        <v>0.002482280777570779</v>
+        <v>0.007113766082022429</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>557.408233</v>
       </c>
       <c r="O18">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P18">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q18">
-        <v>472.845502196269</v>
+        <v>2168.658416997619</v>
       </c>
       <c r="R18">
-        <v>2837.073013177614</v>
+        <v>13011.95050198571</v>
       </c>
       <c r="S18">
-        <v>0.001415006996056325</v>
+        <v>0.003751969807157063</v>
       </c>
       <c r="T18">
-        <v>0.0009720175196583778</v>
+        <v>0.002557506262450743</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>0.5</v>
       </c>
       <c r="G19">
-        <v>2.544879</v>
+        <v>11.671832</v>
       </c>
       <c r="H19">
-        <v>5.089758</v>
+        <v>23.343664</v>
       </c>
       <c r="I19">
-        <v>0.003718805606519876</v>
+        <v>0.01063282939248953</v>
       </c>
       <c r="J19">
-        <v>0.002482280777570779</v>
+        <v>0.007113766082022429</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N19">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O19">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P19">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q19">
-        <v>298.614636857989</v>
+        <v>1599.877955510277</v>
       </c>
       <c r="R19">
-        <v>1791.687821147934</v>
+        <v>9599.267733061663</v>
       </c>
       <c r="S19">
-        <v>0.0008936149298581774</v>
+        <v>0.002767929581331259</v>
       </c>
       <c r="T19">
-        <v>0.0006138551753251297</v>
+        <v>0.00188674152568441</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>0.5</v>
       </c>
       <c r="G20">
-        <v>2.544879</v>
+        <v>11.671832</v>
       </c>
       <c r="H20">
-        <v>5.089758</v>
+        <v>23.343664</v>
       </c>
       <c r="I20">
-        <v>0.003718805606519876</v>
+        <v>0.01063282939248953</v>
       </c>
       <c r="J20">
-        <v>0.002482280777570779</v>
+        <v>0.007113766082022429</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N20">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O20">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P20">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q20">
-        <v>105.507054342546</v>
+        <v>340.966152688268</v>
       </c>
       <c r="R20">
-        <v>422.028217370184</v>
+        <v>1363.864610753072</v>
       </c>
       <c r="S20">
-        <v>0.0003157336155986714</v>
+        <v>0.0005899014340487957</v>
       </c>
       <c r="T20">
-        <v>0.0001445922678650257</v>
+        <v>0.0002680683639707682</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>0.5</v>
       </c>
       <c r="G21">
-        <v>2.544879</v>
+        <v>11.671832</v>
       </c>
       <c r="H21">
-        <v>5.089758</v>
+        <v>23.343664</v>
       </c>
       <c r="I21">
-        <v>0.003718805606519876</v>
+        <v>0.01063282939248953</v>
       </c>
       <c r="J21">
-        <v>0.002482280777570779</v>
+        <v>0.007113766082022429</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N21">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O21">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P21">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q21">
-        <v>355.682856225901</v>
+        <v>2002.400947488341</v>
       </c>
       <c r="R21">
-        <v>2134.097137355406</v>
+        <v>12014.40568493005</v>
       </c>
       <c r="S21">
-        <v>0.001064393607635584</v>
+        <v>0.003464329761622944</v>
       </c>
       <c r="T21">
-        <v>0.0007311689887878048</v>
+        <v>0.00236143826201485</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>324.7140833333333</v>
+        <v>703.0810953333333</v>
       </c>
       <c r="H22">
-        <v>974.1422499999999</v>
+        <v>2109.243286</v>
       </c>
       <c r="I22">
-        <v>0.4745013627822628</v>
+        <v>0.6404942545235403</v>
       </c>
       <c r="J22">
-        <v>0.4750902855881455</v>
+        <v>0.6427724176753201</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N22">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O22">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P22">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q22">
-        <v>1281.540846601555</v>
+        <v>2043.748704005683</v>
       </c>
       <c r="R22">
-        <v>11533.867619414</v>
+        <v>18393.73833605115</v>
       </c>
       <c r="S22">
-        <v>0.003835056599355036</v>
+        <v>0.003535865017166565</v>
       </c>
       <c r="T22">
-        <v>0.003951650642552218</v>
+        <v>0.00361529971829759</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>324.7140833333333</v>
+        <v>703.0810953333333</v>
       </c>
       <c r="H23">
-        <v>974.1422499999999</v>
+        <v>2109.243286</v>
       </c>
       <c r="I23">
-        <v>0.4745013627822628</v>
+        <v>0.6404942545235403</v>
       </c>
       <c r="J23">
-        <v>0.4750902855881455</v>
+        <v>0.6427724176753201</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>557.408233</v>
       </c>
       <c r="O23">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P23">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q23">
-        <v>60332.76780701602</v>
+        <v>130634.3970018193</v>
       </c>
       <c r="R23">
-        <v>542994.9102631442</v>
+        <v>1175709.573016374</v>
       </c>
       <c r="S23">
-        <v>0.1805479551816347</v>
+        <v>0.226008996845875</v>
       </c>
       <c r="T23">
-        <v>0.1860370048319451</v>
+        <v>0.2310863844243638</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>324.7140833333333</v>
+        <v>703.0810953333333</v>
       </c>
       <c r="H24">
-        <v>974.1422499999999</v>
+        <v>2109.243286</v>
       </c>
       <c r="I24">
-        <v>0.4745013627822628</v>
+        <v>0.6404942545235403</v>
       </c>
       <c r="J24">
-        <v>0.4750902855881455</v>
+        <v>0.6427724176753201</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N24">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O24">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P24">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q24">
-        <v>38101.76361125936</v>
+        <v>96372.52706857154</v>
       </c>
       <c r="R24">
-        <v>342915.8725013342</v>
+        <v>867352.7436171438</v>
       </c>
       <c r="S24">
-        <v>0.1140208838227197</v>
+        <v>0.1667329483364665</v>
       </c>
       <c r="T24">
-        <v>0.1174873661312318</v>
+        <v>0.1704786744474749</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>324.7140833333333</v>
+        <v>703.0810953333333</v>
       </c>
       <c r="H25">
-        <v>974.1422499999999</v>
+        <v>2109.243286</v>
       </c>
       <c r="I25">
-        <v>0.4745013627822628</v>
+        <v>0.6404942545235403</v>
       </c>
       <c r="J25">
-        <v>0.4750902855881455</v>
+        <v>0.6427724176753201</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N25">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O25">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P25">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q25">
-        <v>13462.18285271716</v>
+        <v>20538.92277610405</v>
       </c>
       <c r="R25">
-        <v>80773.09711630299</v>
+        <v>123233.5366566243</v>
       </c>
       <c r="S25">
-        <v>0.04028606136741338</v>
+        <v>0.03553414291687298</v>
       </c>
       <c r="T25">
-        <v>0.02767389670601997</v>
+        <v>0.02422162163122066</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>324.7140833333333</v>
+        <v>703.0810953333333</v>
       </c>
       <c r="H26">
-        <v>974.1422499999999</v>
+        <v>2109.243286</v>
       </c>
       <c r="I26">
-        <v>0.4745013627822628</v>
+        <v>0.6404942545235403</v>
       </c>
       <c r="J26">
-        <v>0.4750902855881455</v>
+        <v>0.6427724176753201</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N26">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O26">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P26">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q26">
-        <v>45383.38860777869</v>
+        <v>120619.4752851658</v>
       </c>
       <c r="R26">
-        <v>408450.4974700082</v>
+        <v>1085575.277566492</v>
       </c>
       <c r="S26">
-        <v>0.13581140581114</v>
+        <v>0.2086823014071591</v>
       </c>
       <c r="T26">
-        <v>0.1399403672763964</v>
+        <v>0.2133704374539632</v>
       </c>
     </row>
   </sheetData>
